--- a/pred_ohlcv/54_21/2019-10-30 BTG ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-10-30 BTG ohlcv.xlsx
@@ -938,7 +938,7 @@
         <v>3458.247321639999</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -990,7 +990,7 @@
         <v>3604.183721639999</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1016,7 +1016,7 @@
         <v>3604.183721639999</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1068,7 +1068,7 @@
         <v>3604.183721639999</v>
       </c>
       <c r="H26">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1094,7 +1094,7 @@
         <v>3613.344821639999</v>
       </c>
       <c r="H27">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1146,7 +1146,7 @@
         <v>4045.851421639999</v>
       </c>
       <c r="H29">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1276,7 +1276,7 @@
         <v>3968.579821639999</v>
       </c>
       <c r="H34">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1380,7 +1380,7 @@
         <v>3958.746821639999</v>
       </c>
       <c r="H38">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -1406,7 +1406,7 @@
         <v>3958.746821639999</v>
       </c>
       <c r="H39">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -1432,7 +1432,7 @@
         <v>3858.746821639999</v>
       </c>
       <c r="H40">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -1458,7 +1458,7 @@
         <v>3862.746821639999</v>
       </c>
       <c r="H41">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -1484,7 +1484,7 @@
         <v>3713.974921639999</v>
       </c>
       <c r="H42">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -1510,7 +1510,7 @@
         <v>3715.974921639999</v>
       </c>
       <c r="H43">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -1536,7 +1536,7 @@
         <v>3715.974921639999</v>
       </c>
       <c r="H44">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -1562,7 +1562,7 @@
         <v>3697.974921639999</v>
       </c>
       <c r="H45">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -1588,7 +1588,7 @@
         <v>3697.974921639999</v>
       </c>
       <c r="H46">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -1614,7 +1614,7 @@
         <v>3697.774921639999</v>
       </c>
       <c r="H47">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -1640,7 +1640,7 @@
         <v>3702.547921639999</v>
       </c>
       <c r="H48">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -1666,7 +1666,7 @@
         <v>3698.177321639999</v>
       </c>
       <c r="H49">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -1692,7 +1692,7 @@
         <v>3646.056221639999</v>
       </c>
       <c r="H50">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -1718,7 +1718,7 @@
         <v>3646.056221639999</v>
       </c>
       <c r="H51">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -1744,7 +1744,7 @@
         <v>3699.33822164</v>
       </c>
       <c r="H52">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -1770,7 +1770,7 @@
         <v>3798.601421639999</v>
       </c>
       <c r="H53">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -1796,7 +1796,7 @@
         <v>3798.601421639999</v>
       </c>
       <c r="H54">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -1848,7 +1848,7 @@
         <v>3790.237121639999</v>
       </c>
       <c r="H56">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -1874,7 +1874,7 @@
         <v>3953.295721639999</v>
       </c>
       <c r="H57">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -2186,7 +2186,7 @@
         <v>4413.853221639999</v>
       </c>
       <c r="H69">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -2290,7 +2290,7 @@
         <v>4583.853221639999</v>
       </c>
       <c r="H73">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -2472,7 +2472,7 @@
         <v>4698.456221639998</v>
       </c>
       <c r="H80">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -2550,7 +2550,7 @@
         <v>4736.202083879999</v>
       </c>
       <c r="H83">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -2576,7 +2576,7 @@
         <v>4736.202083879999</v>
       </c>
       <c r="H84">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -2602,7 +2602,7 @@
         <v>4612.766583879999</v>
       </c>
       <c r="H85">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -4240,7 +4240,7 @@
         <v>4293.642783880001</v>
       </c>
       <c r="H148">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="149" spans="1:8">
@@ -4266,7 +4266,7 @@
         <v>4333.7961602</v>
       </c>
       <c r="H149">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="150" spans="1:8">
@@ -4292,7 +4292,7 @@
         <v>4410.1511602</v>
       </c>
       <c r="H150">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="151" spans="1:8">
@@ -4318,7 +4318,7 @@
         <v>4406.1511602</v>
       </c>
       <c r="H151">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="152" spans="1:8">
@@ -4344,7 +4344,7 @@
         <v>4406.1511602</v>
       </c>
       <c r="H152">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="153" spans="1:8">
@@ -4370,7 +4370,7 @@
         <v>4400.1511602</v>
       </c>
       <c r="H153">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="154" spans="1:8">
@@ -4396,7 +4396,7 @@
         <v>4396.1511602</v>
       </c>
       <c r="H154">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="155" spans="1:8">
@@ -4422,7 +4422,7 @@
         <v>4428.1511602</v>
       </c>
       <c r="H155">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="156" spans="1:8">
@@ -4448,7 +4448,7 @@
         <v>4443.07238388</v>
       </c>
       <c r="H156">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="157" spans="1:8">
@@ -4500,7 +4500,7 @@
         <v>4388.65138388</v>
       </c>
       <c r="H158">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="159" spans="1:8">
@@ -4526,7 +4526,7 @@
         <v>4388.65138388</v>
       </c>
       <c r="H159">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="160" spans="1:8">
@@ -4552,7 +4552,7 @@
         <v>4388.65138388</v>
       </c>
       <c r="H160">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="161" spans="1:8">
@@ -4578,7 +4578,7 @@
         <v>4368.88838388</v>
       </c>
       <c r="H161">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="162" spans="1:8">
@@ -4604,7 +4604,7 @@
         <v>4516.00658388</v>
       </c>
       <c r="H162">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="163" spans="1:8">
@@ -4994,7 +4994,7 @@
         <v>4328.48628388</v>
       </c>
       <c r="H177">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="178" spans="1:8">
@@ -5020,7 +5020,7 @@
         <v>4278.52798388</v>
       </c>
       <c r="H178">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="179" spans="1:8">
@@ -5046,7 +5046,7 @@
         <v>4278.52798388</v>
       </c>
       <c r="H179">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="180" spans="1:8">
@@ -5072,7 +5072,7 @@
         <v>4278.52798388</v>
       </c>
       <c r="H180">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="181" spans="1:8">
@@ -5124,7 +5124,7 @@
         <v>4278.52798388</v>
       </c>
       <c r="H182">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="183" spans="1:8">
@@ -5176,7 +5176,7 @@
         <v>4362.931183879999</v>
       </c>
       <c r="H184">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="185" spans="1:8">
@@ -5202,7 +5202,7 @@
         <v>4360.931183879999</v>
       </c>
       <c r="H185">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="186" spans="1:8">
@@ -5306,7 +5306,7 @@
         <v>4392.520183879999</v>
       </c>
       <c r="H189">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="190" spans="1:8">
@@ -5332,7 +5332,7 @@
         <v>4415.36168388</v>
       </c>
       <c r="H190">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="191" spans="1:8">
@@ -5384,7 +5384,7 @@
         <v>4415.61151088</v>
       </c>
       <c r="H192">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="193" spans="1:8">
@@ -6294,7 +6294,7 @@
         <v>4316.607566219999</v>
       </c>
       <c r="H227">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="228" spans="1:8">
@@ -6320,7 +6320,7 @@
         <v>4258.622366219999</v>
       </c>
       <c r="H228">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="229" spans="1:8">
@@ -6346,7 +6346,7 @@
         <v>4303.111966219999</v>
       </c>
       <c r="H229">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="230" spans="1:8">
@@ -6372,7 +6372,7 @@
         <v>4301.111966219999</v>
       </c>
       <c r="H230">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="231" spans="1:8">
@@ -6398,7 +6398,7 @@
         <v>4311.305566219999</v>
       </c>
       <c r="H231">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="232" spans="1:8">
@@ -6424,7 +6424,7 @@
         <v>4289.305566219999</v>
       </c>
       <c r="H232">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="233" spans="1:8">
@@ -6450,7 +6450,7 @@
         <v>4247.265566219999</v>
       </c>
       <c r="H233">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="234" spans="1:8">
@@ -6476,7 +6476,7 @@
         <v>4256.265566219999</v>
       </c>
       <c r="H234">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="235" spans="1:8">
@@ -6502,7 +6502,7 @@
         <v>4256.265566219999</v>
       </c>
       <c r="H235">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="236" spans="1:8">
@@ -6528,7 +6528,7 @@
         <v>4195.481866219999</v>
       </c>
       <c r="H236">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="237" spans="1:8">
@@ -6554,7 +6554,7 @@
         <v>4202.548966219999</v>
       </c>
       <c r="H237">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="238" spans="1:8">
@@ -6580,7 +6580,7 @@
         <v>4203.548966219999</v>
       </c>
       <c r="H238">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="239" spans="1:8">
@@ -6606,7 +6606,7 @@
         <v>4203.548966219999</v>
       </c>
       <c r="H239">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="240" spans="1:8">
@@ -6632,7 +6632,7 @@
         <v>4203.548966219999</v>
       </c>
       <c r="H240">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="241" spans="1:8">
@@ -7698,7 +7698,7 @@
         <v>2677.448066219996</v>
       </c>
       <c r="H281">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="282" spans="1:8">
@@ -7724,7 +7724,7 @@
         <v>2677.448066219996</v>
       </c>
       <c r="H282">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="283" spans="1:8">
@@ -7750,7 +7750,7 @@
         <v>2599.500266219996</v>
       </c>
       <c r="H283">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="284" spans="1:8">
@@ -7776,7 +7776,7 @@
         <v>2632.540266219996</v>
       </c>
       <c r="H284">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="285" spans="1:8">
@@ -7802,7 +7802,7 @@
         <v>2632.540266219996</v>
       </c>
       <c r="H285">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="286" spans="1:8">
@@ -7828,7 +7828,7 @@
         <v>2632.540266219996</v>
       </c>
       <c r="H286">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="287" spans="1:8">
@@ -7854,7 +7854,7 @@
         <v>2635.540266219996</v>
       </c>
       <c r="H287">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="288" spans="1:8">
@@ -7880,7 +7880,7 @@
         <v>2681.540266219996</v>
       </c>
       <c r="H288">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="289" spans="1:8">
@@ -7906,7 +7906,7 @@
         <v>2663.526666219996</v>
       </c>
       <c r="H289">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="290" spans="1:8">
@@ -8218,7 +8218,7 @@
         <v>3491.754236459996</v>
       </c>
       <c r="H301">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="302" spans="1:8">
@@ -8270,7 +8270,7 @@
         <v>3480.754236459996</v>
       </c>
       <c r="H303">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="304" spans="1:8">
@@ -8296,7 +8296,7 @@
         <v>3271.065136459996</v>
       </c>
       <c r="H304">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="305" spans="1:8">
@@ -8322,7 +8322,7 @@
         <v>3275.567636459996</v>
       </c>
       <c r="H305">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="306" spans="1:8">
@@ -8478,7 +8478,7 @@
         <v>2747.963236459996</v>
       </c>
       <c r="H311">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="312" spans="1:8">
@@ -8504,7 +8504,7 @@
         <v>3002.173136459995</v>
       </c>
       <c r="H312">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="313" spans="1:8">
@@ -8530,7 +8530,7 @@
         <v>2992.173136459995</v>
       </c>
       <c r="H313">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="314" spans="1:8">
@@ -8556,7 +8556,7 @@
         <v>3180.636836459995</v>
       </c>
       <c r="H314">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="315" spans="1:8">
@@ -8582,7 +8582,7 @@
         <v>3170.636836459995</v>
       </c>
       <c r="H315">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="316" spans="1:8">
@@ -8608,7 +8608,7 @@
         <v>3166.147236459995</v>
       </c>
       <c r="H316">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="317" spans="1:8">
@@ -8634,7 +8634,7 @@
         <v>3156.147236459995</v>
       </c>
       <c r="H317">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="318" spans="1:8">
@@ -8686,7 +8686,7 @@
         <v>3183.168036459995</v>
       </c>
       <c r="H319">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="320" spans="1:8">
@@ -8712,7 +8712,7 @@
         <v>3204.168036459995</v>
       </c>
       <c r="H320">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="321" spans="1:8">
@@ -8738,7 +8738,7 @@
         <v>3200.168036459995</v>
       </c>
       <c r="H321">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="322" spans="1:8">
@@ -8764,7 +8764,7 @@
         <v>3215.678436459995</v>
       </c>
       <c r="H322">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="323" spans="1:8">
@@ -8790,7 +8790,7 @@
         <v>3184.657636459996</v>
       </c>
       <c r="H323">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="324" spans="1:8">
@@ -8816,7 +8816,7 @@
         <v>3184.657636459996</v>
       </c>
       <c r="H324">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="325" spans="1:8">
@@ -8842,7 +8842,7 @@
         <v>3153.157636459996</v>
       </c>
       <c r="H325">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/pred_ohlcv/54_21/2019-10-30 BTG ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-10-30 BTG ohlcv.xlsx
@@ -444,7 +444,7 @@
         <v>3111.261021639999</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -470,7 +470,7 @@
         <v>3147.996821639999</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -496,7 +496,7 @@
         <v>3321.213321639999</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -522,7 +522,7 @@
         <v>3349.333321639999</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -548,7 +548,7 @@
         <v>3349.333321639999</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -574,7 +574,7 @@
         <v>3694.657021639999</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -600,7 +600,7 @@
         <v>3694.657021639999</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -704,7 +704,7 @@
         <v>3737.32672164</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -938,7 +938,7 @@
         <v>3458.247321639999</v>
       </c>
       <c r="H21">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -990,7 +990,7 @@
         <v>3604.183721639999</v>
       </c>
       <c r="H23">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1016,7 +1016,7 @@
         <v>3604.183721639999</v>
       </c>
       <c r="H24">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1042,7 +1042,7 @@
         <v>3604.183721639999</v>
       </c>
       <c r="H25">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1068,7 +1068,7 @@
         <v>3604.183721639999</v>
       </c>
       <c r="H26">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1094,7 +1094,7 @@
         <v>3613.344821639999</v>
       </c>
       <c r="H27">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1640,7 +1640,7 @@
         <v>3702.547921639999</v>
       </c>
       <c r="H48">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -1744,7 +1744,7 @@
         <v>3699.33822164</v>
       </c>
       <c r="H52">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -2290,7 +2290,7 @@
         <v>4583.853221639999</v>
       </c>
       <c r="H73">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -2576,7 +2576,7 @@
         <v>4736.202083879999</v>
       </c>
       <c r="H84">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -2602,7 +2602,7 @@
         <v>4612.766583879999</v>
       </c>
       <c r="H85">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -4344,7 +4344,7 @@
         <v>4406.1511602</v>
       </c>
       <c r="H152">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="153" spans="1:8">
@@ -4370,7 +4370,7 @@
         <v>4400.1511602</v>
       </c>
       <c r="H153">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="154" spans="1:8">
@@ -4396,7 +4396,7 @@
         <v>4396.1511602</v>
       </c>
       <c r="H154">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="155" spans="1:8">
@@ -4422,7 +4422,7 @@
         <v>4428.1511602</v>
       </c>
       <c r="H155">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="156" spans="1:8">
@@ -4994,7 +4994,7 @@
         <v>4328.48628388</v>
       </c>
       <c r="H177">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="178" spans="1:8">
@@ -6294,7 +6294,7 @@
         <v>4316.607566219999</v>
       </c>
       <c r="H227">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="228" spans="1:8">
@@ -6320,7 +6320,7 @@
         <v>4258.622366219999</v>
       </c>
       <c r="H228">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="229" spans="1:8">
@@ -6346,7 +6346,7 @@
         <v>4303.111966219999</v>
       </c>
       <c r="H229">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="230" spans="1:8">
@@ -6372,7 +6372,7 @@
         <v>4301.111966219999</v>
       </c>
       <c r="H230">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="231" spans="1:8">
@@ -6398,7 +6398,7 @@
         <v>4311.305566219999</v>
       </c>
       <c r="H231">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="232" spans="1:8">
@@ -6424,7 +6424,7 @@
         <v>4289.305566219999</v>
       </c>
       <c r="H232">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="233" spans="1:8">
@@ -6450,7 +6450,7 @@
         <v>4247.265566219999</v>
       </c>
       <c r="H233">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="234" spans="1:8">
@@ -6476,7 +6476,7 @@
         <v>4256.265566219999</v>
       </c>
       <c r="H234">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="235" spans="1:8">
@@ -6502,7 +6502,7 @@
         <v>4256.265566219999</v>
       </c>
       <c r="H235">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="236" spans="1:8">
@@ -6528,7 +6528,7 @@
         <v>4195.481866219999</v>
       </c>
       <c r="H236">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="237" spans="1:8">
@@ -6554,7 +6554,7 @@
         <v>4202.548966219999</v>
       </c>
       <c r="H237">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="238" spans="1:8">
@@ -6580,7 +6580,7 @@
         <v>4203.548966219999</v>
       </c>
       <c r="H238">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="239" spans="1:8">
@@ -6606,7 +6606,7 @@
         <v>4203.548966219999</v>
       </c>
       <c r="H239">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="240" spans="1:8">
@@ -6632,7 +6632,7 @@
         <v>4203.548966219999</v>
       </c>
       <c r="H240">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="241" spans="1:8">
@@ -8582,7 +8582,7 @@
         <v>3170.636836459995</v>
       </c>
       <c r="H315">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="316" spans="1:8">
@@ -8660,7 +8660,7 @@
         <v>3187.168036459995</v>
       </c>
       <c r="H318">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="319" spans="1:8">
@@ -8686,7 +8686,7 @@
         <v>3183.168036459995</v>
       </c>
       <c r="H319">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="320" spans="1:8">
@@ -8712,7 +8712,7 @@
         <v>3204.168036459995</v>
       </c>
       <c r="H320">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="321" spans="1:8">
@@ -8738,7 +8738,7 @@
         <v>3200.168036459995</v>
       </c>
       <c r="H321">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="322" spans="1:8">
@@ -8764,7 +8764,7 @@
         <v>3215.678436459995</v>
       </c>
       <c r="H322">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="323" spans="1:8">
@@ -8790,7 +8790,7 @@
         <v>3184.657636459996</v>
       </c>
       <c r="H323">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="324" spans="1:8">
@@ -8816,7 +8816,7 @@
         <v>3184.657636459996</v>
       </c>
       <c r="H324">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="325" spans="1:8">
@@ -8842,7 +8842,7 @@
         <v>3153.157636459996</v>
       </c>
       <c r="H325">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>
